--- a/Veri_Setleri/AyaGöreDoğumlar.xlsx
+++ b/Veri_Setleri/AyaGöreDoğumlar.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="t47" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2001-2021" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ortalama" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">t47!$A$1:$N$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'2001-2021'!$A$1:$N$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">ortalama!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">Yıl</t>
   </si>
@@ -66,24 +68,30 @@
   <si>
     <t xml:space="preserve">Aralık</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ortalama</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.00"/>
     <numFmt numFmtId="165" formatCode="#,"/>
     <numFmt numFmtId="166" formatCode="General_)"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="##\ ###\ ##0"/>
+    <numFmt numFmtId="170" formatCode="#,##0"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,6 +113,7 @@
       <color rgb="FF800000"/>
       <name val="Courier New"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -112,27 +121,58 @@
       <color rgb="FF800000"/>
       <name val="Courier New"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Courier New"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial Tur"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,7 +205,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -201,10 +241,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,7 +258,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -243,31 +279,31 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,16 +315,48 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="11" fillId="2" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="2" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -297,12 +365,11 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Date" xfId="20"/>
     <cellStyle name="Fixed" xfId="21"/>
-    <cellStyle name="Başlık 1" xfId="22"/>
-    <cellStyle name="Heading2" xfId="23"/>
-    <cellStyle name="Normal 2" xfId="24"/>
-    <cellStyle name="Normal 2 2" xfId="25"/>
-    <cellStyle name="Normal 3" xfId="26"/>
-    <cellStyle name="Normal_10923_94_1_19.10.2012" xfId="27"/>
+    <cellStyle name="Heading2" xfId="22"/>
+    <cellStyle name="Normal 2" xfId="23"/>
+    <cellStyle name="Normal 2 2" xfId="24"/>
+    <cellStyle name="Normal 3" xfId="25"/>
+    <cellStyle name="Normal_10923_94_1_19.10.2012" xfId="26"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -314,14 +381,14 @@
   </sheetPr>
   <dimension ref="A1:AE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="2" width="9.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="3" width="9.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="31" min="15" style="2" width="9.13"/>
@@ -1492,6 +1559,462 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="15.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="5" style="2" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="246" min="21" style="4" width="9.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="20" t="n">
+        <v>1323341</v>
+      </c>
+      <c r="C2" s="21" t="n">
+        <f aca="false">+B2/12</f>
+        <v>110278.416666667</v>
+      </c>
+      <c r="D2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="19" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="20" t="n">
+        <v>1229555</v>
+      </c>
+      <c r="C3" s="21" t="n">
+        <f aca="false">+B3/12</f>
+        <v>102462.916666667</v>
+      </c>
+      <c r="D3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="19" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="20" t="n">
+        <v>1198927</v>
+      </c>
+      <c r="C4" s="21" t="n">
+        <f aca="false">+B4/12</f>
+        <v>99910.5833333333</v>
+      </c>
+      <c r="D4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="20" t="n">
+        <v>1222484</v>
+      </c>
+      <c r="C5" s="21" t="n">
+        <f aca="false">+B5/12</f>
+        <v>101873.666666667</v>
+      </c>
+      <c r="D5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="19" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="20" t="n">
+        <v>1244041</v>
+      </c>
+      <c r="C6" s="21" t="n">
+        <f aca="false">+B6/12</f>
+        <v>103670.083333333</v>
+      </c>
+      <c r="D6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="19" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="20" t="n">
+        <v>1255432</v>
+      </c>
+      <c r="C7" s="21" t="n">
+        <f aca="false">+B7/12</f>
+        <v>104619.333333333</v>
+      </c>
+      <c r="D7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="19" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="20" t="n">
+        <v>1289992</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <f aca="false">+B8/12</f>
+        <v>107499.333333333</v>
+      </c>
+      <c r="D8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="19" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="20" t="n">
+        <v>1295511</v>
+      </c>
+      <c r="C9" s="21" t="n">
+        <f aca="false">+B9/12</f>
+        <v>107959.25</v>
+      </c>
+      <c r="D9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="20" t="n">
+        <v>1266751</v>
+      </c>
+      <c r="C10" s="21" t="n">
+        <f aca="false">+B10/12</f>
+        <v>105562.583333333</v>
+      </c>
+      <c r="D10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="20" t="n">
+        <v>1261169</v>
+      </c>
+      <c r="C11" s="21" t="n">
+        <f aca="false">+B11/12</f>
+        <v>105097.416666667</v>
+      </c>
+      <c r="D11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="20" t="n">
+        <v>1252812</v>
+      </c>
+      <c r="C12" s="21" t="n">
+        <f aca="false">+B12/12</f>
+        <v>104401</v>
+      </c>
+      <c r="D12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="20" t="n">
+        <v>1294605</v>
+      </c>
+      <c r="C13" s="21" t="n">
+        <f aca="false">+B13/12</f>
+        <v>107883.75</v>
+      </c>
+      <c r="D13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="20" t="n">
+        <v>1297505</v>
+      </c>
+      <c r="C14" s="21" t="n">
+        <f aca="false">+B14/12</f>
+        <v>108125.416666667</v>
+      </c>
+      <c r="D14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="20" t="n">
+        <v>1351088</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <f aca="false">+B15/12</f>
+        <v>112590.666666667</v>
+      </c>
+      <c r="D15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="20" t="n">
+        <v>1336908</v>
+      </c>
+      <c r="C16" s="21" t="n">
+        <f aca="false">+B16/12</f>
+        <v>111409</v>
+      </c>
+      <c r="D16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="20" t="n">
+        <v>1316204</v>
+      </c>
+      <c r="C17" s="21" t="n">
+        <f aca="false">+B17/12</f>
+        <v>109683.666666667</v>
+      </c>
+      <c r="D17" s="0"/>
+    </row>
+    <row r="18" s="13" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="20" t="n">
+        <v>1299419</v>
+      </c>
+      <c r="C18" s="21" t="n">
+        <f aca="false">+B18/12</f>
+        <v>108284.916666667</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="ALY18" s="0"/>
+      <c r="ALZ18" s="0"/>
+      <c r="AMA18" s="0"/>
+      <c r="AMB18" s="0"/>
+      <c r="AMC18" s="0"/>
+      <c r="AMD18" s="0"/>
+      <c r="AME18" s="0"/>
+      <c r="AMF18" s="0"/>
+      <c r="AMG18" s="0"/>
+      <c r="AMH18" s="0"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="13" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="23" t="n">
+        <v>1255258</v>
+      </c>
+      <c r="C19" s="21" t="n">
+        <f aca="false">+B19/12</f>
+        <v>104604.833333333</v>
+      </c>
+      <c r="D19" s="0"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="ALY19" s="0"/>
+      <c r="ALZ19" s="0"/>
+      <c r="AMA19" s="0"/>
+      <c r="AMB19" s="0"/>
+      <c r="AMC19" s="0"/>
+      <c r="AMD19" s="0"/>
+      <c r="AME19" s="0"/>
+      <c r="AMF19" s="0"/>
+      <c r="AMG19" s="0"/>
+      <c r="AMH19" s="0"/>
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="13" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="23" t="n">
+        <v>1188524</v>
+      </c>
+      <c r="C20" s="21" t="n">
+        <f aca="false">+B20/12</f>
+        <v>99043.6666666667</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="ALY20" s="0"/>
+      <c r="ALZ20" s="0"/>
+      <c r="AMA20" s="0"/>
+      <c r="AMB20" s="0"/>
+      <c r="AMC20" s="0"/>
+      <c r="AMD20" s="0"/>
+      <c r="AME20" s="0"/>
+      <c r="AMF20" s="0"/>
+      <c r="AMG20" s="0"/>
+      <c r="AMH20" s="0"/>
+      <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="13" customFormat="true" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="22" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B21" s="23" t="n">
+        <v>1115821</v>
+      </c>
+      <c r="C21" s="21" t="n">
+        <f aca="false">+B21/12</f>
+        <v>92985.0833333333</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="ALY21" s="0"/>
+      <c r="ALZ21" s="0"/>
+      <c r="AMA21" s="0"/>
+      <c r="AMB21" s="0"/>
+      <c r="AMC21" s="0"/>
+      <c r="AMD21" s="0"/>
+      <c r="AME21" s="0"/>
+      <c r="AMF21" s="0"/>
+      <c r="AMG21" s="0"/>
+      <c r="AMH21" s="0"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="22" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B22" s="20" t="n">
+        <v>1079842</v>
+      </c>
+      <c r="C22" s="21" t="n">
+        <f aca="false">+B22/12</f>
+        <v>89986.8333333333</v>
+      </c>
+      <c r="D22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
